--- a/Linear Workflow Process/Linear_Config.xlsx
+++ b/Linear Workflow Process/Linear_Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjani\Documents\UiPath\NABARD_Create case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Linear Workflow Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DA403C-0A79-400E-BE5F-CC41C505705D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A961C9-F9A1-47C6-A290-D32D63BD3851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E8CC490B-AC56-4F82-B3D6-A1BC71FE64D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E8CC490B-AC56-4F82-B3D6-A1BC71FE64D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,20 +69,20 @@
     <t>jd.monga</t>
   </si>
   <si>
-    <t>NB-DFIBT-ADMN-CVC-2020-21-E-000066</t>
-  </si>
-  <si>
     <t>username2</t>
   </si>
   <si>
     <t>pooja.gupta</t>
+  </si>
+  <si>
+    <t>NB-DFIBT-ADMN-CVC-2020-21-E-000084</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +103,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF363636"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,12 +132,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,7 +457,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,8 +502,8 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,10 +532,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Linear Workflow Process/Linear_Config.xlsx
+++ b/Linear Workflow Process/Linear_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulshiyaa\Documents\UiPath\Nabard-Uipath_New\Linear Workflow Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A961C9-F9A1-47C6-A290-D32D63BD3851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7C633A-77A1-46B4-9921-F3A2EF6031CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E8CC490B-AC56-4F82-B3D6-A1BC71FE64D9}"/>
   </bookViews>
@@ -63,19 +63,19 @@
     <t>password1</t>
   </si>
   <si>
+    <t>jd.monga</t>
+  </si>
+  <si>
+    <t>username2</t>
+  </si>
+  <si>
     <t>gautam.sen</t>
   </si>
   <si>
-    <t>jd.monga</t>
-  </si>
-  <si>
-    <t>username2</t>
-  </si>
-  <si>
-    <t>pooja.gupta</t>
-  </si>
-  <si>
-    <t>NB-DFIBT-ADMN-CVC-2020-21-E-000084</t>
+    <t>NB-DFIBT-ADMN-CORMIS-2020-21-E-000097</t>
+  </si>
+  <si>
+    <t>rn.menon</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,10 +532,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
